--- a/prj/src/templates/template_r_zsm_3_verification.xlsx
+++ b/prj/src/templates/template_r_zsm_3_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C6804-9A41-4B4A-974D-A2622748BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F96372-ED7D-4C11-885C-B2E290242868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,17 @@
     <t>IXL APZ Limit Downstream</t>
   </si>
   <si>
+    <t>Related CBTC Direction Zone</t>
+  </si>
+  <si>
+    <t>train_to_home_signal_max_dist</t>
+  </si>
+  <si>
+    <t>Verification of R_ZSM_3</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -139,15 +147,6 @@
 Check for each signal associated to a CBTC Direction zone exit that if an approach area exists, then [train_to_home_signal_max_dist] distance is included in the approach area.</t>
     </r>
   </si>
-  <si>
-    <t>Related CBTC Direction Zone</t>
-  </si>
-  <si>
-    <t>train_to_home_signal_max_dist</t>
-  </si>
-  <si>
-    <t>Verification of R_ZSM_3</t>
-  </si>
 </sst>
 </file>
 
@@ -275,13 +274,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -311,6 +303,12 @@
     <font>
       <sz val="10"/>
       <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -477,109 +475,109 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -666,19 +664,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,7 +1390,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -1537,7 +1535,7 @@
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -1756,13 +1754,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
@@ -1777,23 +1775,23 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1818,10 +1816,10 @@
       <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>

--- a/prj/src/templates/template_r_zsm_3_verification.xlsx
+++ b/prj/src/templates/template_r_zsm_3_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F96372-ED7D-4C11-885C-B2E290242868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9CF69-7275-46A0-9B19-2BEB7FEAFFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">R_ZSM_3!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">R_ZSM_3!$A$2:$Q$2</definedName>
     <definedName name="at_deshunt_max_dist">#REF!</definedName>
     <definedName name="at_rollback_dist">#REF!</definedName>
     <definedName name="Auteurs">[1]Suivi!$M$2:$M$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Author</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>IXL APZ Length</t>
-  </si>
-  <si>
-    <t>IXL APZ Limit Upstream</t>
-  </si>
-  <si>
-    <t>IXL APZ Limit Downstream</t>
   </si>
   <si>
     <t>Related CBTC Direction Zone</t>
@@ -146,6 +140,18 @@
       <t>: The train, whose end is within a certain region ([train_to_home_signal_max_dist]) from a home signal at the end of a CBTC Direction Zone, shall occupy the IL approach area (if any). This rule ensures the route exiting the CBTC Direction Zone cannot be cancelled in IMC, leading to a head on collision with another train, authorized to take a route in opposite direction.
 Check for each signal associated to a CBTC Direction zone exit that if an approach area exists, then [train_to_home_signal_max_dist] distance is included in the approach area.</t>
     </r>
+  </si>
+  <si>
+    <t>Downstream Limit</t>
+  </si>
+  <si>
+    <t>Upstream Limit</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Direction</t>
   </si>
 </sst>
 </file>
@@ -673,16 +679,16 @@
     <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,94 +1372,94 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1461,7 +1467,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1475,7 +1481,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1483,7 +1489,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1491,7 +1497,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1499,14 +1505,14 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1531,11 +1537,11 @@
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -1550,7 +1556,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -1565,7 +1571,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1580,7 +1586,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1595,7 +1601,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1610,7 +1616,7 @@
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -1625,7 +1631,7 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1640,7 +1646,7 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1655,7 +1661,7 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -1670,7 +1676,7 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -1685,7 +1691,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1700,7 +1706,7 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1726,115 +1732,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="12"/>
-    <col min="9" max="9" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="39" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="12"/>
+    <col min="11" max="11" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="39" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>
-  <mergeCells count="9">
-    <mergeCell ref="M1:M2"/>
+  <autoFilter ref="A2:Q2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>
+  <mergeCells count="11">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula xml:space="preserve"> "KO"</formula>
     </cfRule>
@@ -1845,7 +1863,7 @@
       <formula xml:space="preserve"> "OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1">
+  <conditionalFormatting sqref="P1:Q1">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>

--- a/prj/src/templates/template_r_zsm_3_verification.xlsx
+++ b/prj/src/templates/template_r_zsm_3_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9CF69-7275-46A0-9B19-2BEB7FEAFFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FE071-0700-4958-A431-DCF2D430160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -121,12 +121,25 @@
     <t>Verification of R_ZSM_3</t>
   </si>
   <si>
+    <t>Downstream Limit</t>
+  </si>
+  <si>
+    <t>Upstream Limit</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>R_ZSM_3</t>
     </r>
@@ -134,31 +147,20 @@
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>: The train, whose end is within a certain region ([train_to_home_signal_max_dist]) from a home signal at the end of a CBTC Direction Zone, shall occupy the IL approach area (if any). This rule ensures the route exiting the CBTC Direction Zone cannot be cancelled in IMC, leading to a head on collision with another train, authorized to take a route in opposite direction.
 Check for each signal associated to a CBTC Direction zone exit that if an approach area exists, then [train_to_home_signal_max_dist] distance is included in the approach area.</t>
     </r>
-  </si>
-  <si>
-    <t>Downstream Limit</t>
-  </si>
-  <si>
-    <t>Upstream Limit</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -168,35 +170,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,74 +219,9 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,10 +256,56 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -474,221 +464,221 @@
   </borders>
   <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,21 +883,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1517725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188819</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1775726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Hitachi_Hitachi_STS_orizz_Project_and_External_Documents_Orizzontale">
+        <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2327E093-F453-4E8B-BD70-4C6A9B1DC1CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E78CC01-2FC4-4CE8-825A-67F5FBF7B9A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -930,16 +920,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1086971" y="605118"/>
-          <a:ext cx="4416238" cy="390525"/>
+          <a:off x="1085850" y="400050"/>
+          <a:ext cx="2861576" cy="1275790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -947,16 +934,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1103,7 +1080,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1111,39 +1088,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1176,9 +1153,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1211,6 +1205,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,13 +1283,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1287,6 +1291,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1351,11 +1362,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1372,29 +1403,29 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
@@ -1403,121 +1434,121 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="1" t="s">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1533,15 +1564,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8944B3-3DA5-49EF-A85C-2319D4D0361B}">
   <dimension ref="B4:N15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -1556,7 +1590,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -1571,7 +1605,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1586,7 +1620,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1601,7 +1635,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1616,7 +1650,7 @@
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -1631,7 +1665,7 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1646,7 +1680,7 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1661,7 +1695,7 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -1676,7 +1710,7 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -1691,7 +1725,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1706,7 +1740,7 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1734,42 +1768,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="12"/>
-    <col min="11" max="11" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="12"/>
+    <col min="11" max="11" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="13" customWidth="1"/>
     <col min="17" max="17" width="39" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="11.44140625" style="12"/>
+    <col min="18" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>14</v>
@@ -1778,13 +1812,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
@@ -1802,7 +1836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>

--- a/prj/src/templates/template_r_zsm_3_verification.xlsx
+++ b/prj/src/templates/template_r_zsm_3_verification.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FE071-0700-4958-A431-DCF2D430160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B42BE0-9E2D-4797-A811-9C7067317C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Header" sheetId="1" r:id="rId1"/>
+    <sheet name="Header" sheetId="17" r:id="rId1"/>
     <sheet name="Constraint" sheetId="16" r:id="rId2"/>
     <sheet name="R_ZSM_3" sheetId="14" r:id="rId3"/>
   </sheets>
@@ -68,22 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Verifier</t>
-  </si>
-  <si>
-    <t>Approver</t>
-  </si>
-  <si>
-    <t>C_D470:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Status</t>
   </si>
@@ -118,9 +103,6 @@
     <t>train_to_home_signal_max_dist</t>
   </si>
   <si>
-    <t>Verification of R_ZSM_3</t>
-  </si>
-  <si>
     <t>Downstream Limit</t>
   </si>
   <si>
@@ -135,6 +117,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
@@ -160,12 +143,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -217,13 +207,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -237,11 +220,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -264,21 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -294,13 +263,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -308,18 +270,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -462,20 +418,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -574,115 +530,89 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="109">
     <cellStyle name="Lien hypertexte 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Lien hypertexte 2 2" xfId="13" xr:uid="{593AF446-293B-43D6-923C-911DCB8F070F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,6 +709,7 @@
     <cellStyle name="Normal 5" xfId="97" xr:uid="{CFE5BDC5-94AA-4AC1-BFE9-61CB8A899587}"/>
     <cellStyle name="Normal 5 2" xfId="98" xr:uid="{889CBB54-A3CE-4427-BC8E-75C7D0B46DC2}"/>
     <cellStyle name="Normal 50" xfId="7" xr:uid="{BBB89CCF-D59E-4010-9A64-3E3BBB9E87BE}"/>
+    <cellStyle name="Normal 51" xfId="108" xr:uid="{57E629EC-DB82-4702-9E67-15E6F6401543}"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 6 2 2" xfId="100" xr:uid="{DD8E46D7-8DBB-472B-9D28-BBBD2D3D4D2C}"/>
@@ -883,21 +814,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1775726</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E78CC01-2FC4-4CE8-825A-67F5FBF7B9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6DD97B-3DE7-430B-A2F4-AF3A3914007F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,7 +837,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -920,8 +851,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1085850" y="400050"/>
-          <a:ext cx="2861576" cy="1275790"/>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="2956560" cy="1230630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,371 +1324,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7678BB7F-7B6F-42F0-822E-0CB3E90443E8}">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A6:G28"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="11"/>
+    <col min="3" max="3" width="31" style="11" customWidth="1"/>
+    <col min="4" max="4" width="51" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="11"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:F20"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8944B3-3DA5-49EF-A85C-2319D4D0361B}">
-  <dimension ref="B4:N15"/>
+  <dimension ref="B4:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+    <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:N15"/>
+    <mergeCell ref="B4:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1773,103 +1480,103 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="12"/>
-    <col min="11" max="11" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="39" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2"/>
+    <col min="11" max="11" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="39" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>

--- a/prj/src/templates/template_r_zsm_3_verification.xlsx
+++ b/prj/src/templates/template_r_zsm_3_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B42BE0-9E2D-4797-A811-9C7067317C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC83E2-0AA3-4C7F-8CB0-41A2E3671872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="17" r:id="rId1"/>
@@ -117,7 +117,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
@@ -262,7 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -1334,13 +1332,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="11"/>
+    <col min="1" max="2" width="11.5703125" style="11"/>
     <col min="3" max="3" width="31" style="11" customWidth="1"/>
     <col min="4" max="4" width="51" style="11" customWidth="1"/>
     <col min="5" max="5" width="31" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="11"/>
+    <col min="6" max="16384" width="11.5703125" style="11"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1356,12 +1354,12 @@
       <selection activeCell="B4" sqref="B4:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1372,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1385,7 +1383,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1396,7 +1394,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1407,7 +1405,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1418,7 +1416,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1429,7 +1427,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1440,7 +1438,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1451,7 +1449,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -1480,29 +1478,29 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2"/>
-    <col min="11" max="11" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="3" customWidth="1"/>
     <col min="17" max="17" width="39" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="11.44140625" style="2"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
